--- a/DATA/Test Execution And Bug Reports.xlsx
+++ b/DATA/Test Execution And Bug Reports.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Execution" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -375,6 +375,13 @@
   </si>
   <si>
     <t>Toutes les tâches disparaissent.</t>
+  </si>
+  <si>
+    <t>Environement</t>
+  </si>
+  <si>
+    <t>Chrom V139
+Windows 11</t>
   </si>
 </sst>
 </file>
@@ -424,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -440,6 +447,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -918,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1214,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="102" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1229,9 +1242,10 @@
     <col min="5" max="5" width="23.6328125" customWidth="1"/>
     <col min="6" max="6" width="23.81640625" customWidth="1"/>
     <col min="7" max="7" width="53.54296875" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -1253,8 +1267,11 @@
       <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="161" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="161" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>60</v>
       </c>
@@ -1273,8 +1290,11 @@
       <c r="F2" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="179" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="179" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>61</v>
       </c>
@@ -1293,8 +1313,9 @@
       <c r="F3" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="179" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" ht="179" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>62</v>
       </c>
@@ -1313,8 +1334,9 @@
       <c r="F4" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="179" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" ht="179" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>63</v>
       </c>
@@ -1333,8 +1355,9 @@
       <c r="F5" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="179" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="179" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>64</v>
       </c>
@@ -1353,8 +1376,12 @@
       <c r="F6" s="5" t="s">
         <v>74</v>
       </c>
+      <c r="H6" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:H6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
